--- a/functions/export/src/1/F023588-M074Q115.xlsx
+++ b/functions/export/src/1/F023588-M074Q115.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>ARTICOLO:</t>
   </si>
@@ -167,105 +167,96 @@
     <t>ORLATURA</t>
   </si>
   <si>
-    <t>LOGO</t>
-  </si>
-  <si>
-    <t>LVTI0029-0000</t>
-  </si>
-  <si>
-    <t>TIMBRO A FUOCO FERRAGAMO 50MM SU LINGUETTA</t>
+    <t>FILO</t>
+  </si>
+  <si>
+    <t>FIS0300004000</t>
+  </si>
+  <si>
+    <t>FILO 30 (PZ) SERAFIL 4000</t>
+  </si>
+  <si>
+    <t>FIS0400004000</t>
+  </si>
+  <si>
+    <t>FILO 40 (PZ) SERAFIL 4000</t>
+  </si>
+  <si>
+    <t>FIS0200000416</t>
+  </si>
+  <si>
+    <t>FILO 20 (PZ) SERAFIL 416</t>
+  </si>
+  <si>
+    <t>FIS0400000416</t>
+  </si>
+  <si>
+    <t>FILO 40 (PZ) SERAFIL 416</t>
+  </si>
+  <si>
+    <t>FIS0600004000</t>
+  </si>
+  <si>
+    <t>FILO 60 (PZ) SERAFIL 4000</t>
+  </si>
+  <si>
+    <t>COLLA</t>
+  </si>
+  <si>
+    <t>GEGE00150000</t>
+  </si>
+  <si>
+    <t>VULKAPRENE 878</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>MCCO00140102</t>
+  </si>
+  <si>
+    <t>SAR 700 NATURALE</t>
+  </si>
+  <si>
+    <t>RINF.ORL.</t>
+  </si>
+  <si>
+    <t>RN3050-0999</t>
+  </si>
+  <si>
+    <t>FETTUCCIA NYLON MM 30X50 NERO</t>
+  </si>
+  <si>
+    <t>BI0650-0000</t>
+  </si>
+  <si>
+    <t>BIADESIVO MM 6X50</t>
+  </si>
+  <si>
+    <t>RM0450-0999</t>
+  </si>
+  <si>
+    <t>FETTUCCIA MISTO NYLON/COTONE MM 4X50 NERO</t>
+  </si>
+  <si>
+    <t>RN2050-0999</t>
+  </si>
+  <si>
+    <t>FETTUCCIA NYLON MM 20X50 NERO</t>
+  </si>
+  <si>
+    <t>PUNT.ORL.</t>
+  </si>
+  <si>
+    <t>PU6949</t>
+  </si>
+  <si>
+    <t>ART.A6949 / PUNTALE MAT. P124 (CASSINA GANC UOMO)</t>
   </si>
   <si>
     <t>PA</t>
   </si>
   <si>
-    <t>FILO</t>
-  </si>
-  <si>
-    <t>FIS0300004000</t>
-  </si>
-  <si>
-    <t>FILO 30 (PZ) SERAFIL 4000</t>
-  </si>
-  <si>
-    <t>FIS0400004000</t>
-  </si>
-  <si>
-    <t>FILO 40 (PZ) SERAFIL 4000</t>
-  </si>
-  <si>
-    <t>FIS0200000416</t>
-  </si>
-  <si>
-    <t>FILO 20 (PZ) SERAFIL 416</t>
-  </si>
-  <si>
-    <t>FIS0400000416</t>
-  </si>
-  <si>
-    <t>FILO 40 (PZ) SERAFIL 416</t>
-  </si>
-  <si>
-    <t>FIS0600004000</t>
-  </si>
-  <si>
-    <t>FILO 60 (PZ) SERAFIL 4000</t>
-  </si>
-  <si>
-    <t>COLLA</t>
-  </si>
-  <si>
-    <t>GEGE00150000</t>
-  </si>
-  <si>
-    <t>VULKAPRENE 878</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>MCCO00140102</t>
-  </si>
-  <si>
-    <t>SAR 700 NATURALE</t>
-  </si>
-  <si>
-    <t>RINF.ORL.</t>
-  </si>
-  <si>
-    <t>RN3050-0999</t>
-  </si>
-  <si>
-    <t>FETTUCCIA NYLON MM 30X50 NERO</t>
-  </si>
-  <si>
-    <t>BI0650-0000</t>
-  </si>
-  <si>
-    <t>BIADESIVO MM 6X50</t>
-  </si>
-  <si>
-    <t>RM0450-0999</t>
-  </si>
-  <si>
-    <t>FETTUCCIA MISTO NYLON/COTONE MM 4X50 NERO</t>
-  </si>
-  <si>
-    <t>RN2050-0999</t>
-  </si>
-  <si>
-    <t>FETTUCCIA NYLON MM 20X50 NERO</t>
-  </si>
-  <si>
-    <t>PUNT.ORL.</t>
-  </si>
-  <si>
-    <t>PU6949</t>
-  </si>
-  <si>
-    <t>ART.A6949 / PUNTALE MAT. P124 (CASSINA GANC UOMO)</t>
-  </si>
-  <si>
     <t>CONT.ORL</t>
   </si>
   <si>
@@ -285,15 +276,6 @@
   </si>
   <si>
     <t>PZ</t>
-  </si>
-  <si>
-    <t>MASTICE</t>
-  </si>
-  <si>
-    <t>GEGE06160100</t>
-  </si>
-  <si>
-    <t>AQUAGUM M/313 BOX BIANCO</t>
   </si>
 </sst>
 </file>
@@ -651,7 +633,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A21" sqref="A21:F21"/>
@@ -673,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6900</v>
+        <v>5559</v>
       </c>
       <c r="F2"/>
     </row>
@@ -682,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1255</v>
+        <v>6</v>
       </c>
       <c r="F3"/>
     </row>
@@ -736,7 +718,7 @@
         <v>0.08</v>
       </c>
       <c r="F7">
-        <v>100.4</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -756,7 +738,7 @@
         <v>0.18</v>
       </c>
       <c r="F8">
-        <v>225.9</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -776,7 +758,7 @@
         <v>0.13</v>
       </c>
       <c r="F9">
-        <v>163.15</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -796,7 +778,7 @@
         <v>0.128</v>
       </c>
       <c r="F10">
-        <v>160.64</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -816,7 +798,7 @@
         <v>0.035</v>
       </c>
       <c r="F11">
-        <v>43.93</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -836,7 +818,7 @@
         <v>0.035</v>
       </c>
       <c r="F12">
-        <v>43.93</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -856,7 +838,7 @@
         <v>0.016</v>
       </c>
       <c r="F13">
-        <v>20.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -876,7 +858,7 @@
         <v>0.04</v>
       </c>
       <c r="F14">
-        <v>50.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -896,7 +878,7 @@
         <v>0.02</v>
       </c>
       <c r="F15">
-        <v>25.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -916,7 +898,7 @@
         <v>0.115</v>
       </c>
       <c r="F16">
-        <v>144.33</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -936,7 +918,7 @@
         <v>0.025</v>
       </c>
       <c r="F17">
-        <v>31.38</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -956,7 +938,7 @@
         <v>0.016</v>
       </c>
       <c r="F18">
-        <v>20.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -976,7 +958,7 @@
         <v>0.017</v>
       </c>
       <c r="F19">
-        <v>21.34</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -996,7 +978,7 @@
         <v>0.023</v>
       </c>
       <c r="F20">
-        <v>28.86</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1020,253 +1002,253 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F22">
-        <v>1255.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
       <c r="D23" t="s">
         <v>24</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>17570.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>8785.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F25">
-        <v>3765.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>1882.5</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
       <c r="D27" t="s">
         <v>24</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>10040.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>0.014</v>
       </c>
       <c r="F28">
-        <v>5020.0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E29">
-        <v>0.014</v>
+        <v>0.001</v>
       </c>
       <c r="F29">
-        <v>17.57</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>0.001</v>
+        <v>0.3</v>
       </c>
       <c r="F30">
-        <v>1.26</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
       <c r="D31" t="s">
         <v>24</v>
       </c>
       <c r="E31">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F31">
-        <v>376.5</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
       <c r="E32">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F32">
-        <v>1882.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
       <c r="E33">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="F33">
-        <v>878.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>79</v>
       </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
       <c r="E34">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>251.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1280,13 +1262,13 @@
         <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1255.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1300,53 +1282,13 @@
         <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F36">
-        <v>1255.0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37">
-        <v>24</v>
-      </c>
-      <c r="F37">
-        <v>30120.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38">
-        <v>0.01</v>
-      </c>
-      <c r="F38">
-        <v>12.55</v>
+        <v>144.0</v>
       </c>
     </row>
   </sheetData>

--- a/functions/export/src/1/F023588-M074Q115.xlsx
+++ b/functions/export/src/1/F023588-M074Q115.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>ARTICOLO:</t>
   </si>
@@ -218,6 +218,15 @@
     <t>SAR 700 NATURALE</t>
   </si>
   <si>
+    <t>TINTA</t>
+  </si>
+  <si>
+    <t>MCTI9999TN02</t>
+  </si>
+  <si>
+    <t>TINTA TINGIBORDI PIDIGI BO3090 NERO</t>
+  </si>
+  <si>
     <t>RINF.ORL.</t>
   </si>
   <si>
@@ -276,6 +285,15 @@
   </si>
   <si>
     <t>PZ</t>
+  </si>
+  <si>
+    <t>MASTICE</t>
+  </si>
+  <si>
+    <t>GEGE06160100</t>
+  </si>
+  <si>
+    <t>AQUAGUM M/313 BOX BIANCO</t>
   </si>
 </sst>
 </file>
@@ -633,7 +651,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A21" sqref="A21:F21"/>
@@ -655,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5559</v>
+        <v>1236</v>
       </c>
       <c r="F2"/>
     </row>
@@ -664,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>857</v>
       </c>
       <c r="F3"/>
     </row>
@@ -718,7 +736,7 @@
         <v>0.08</v>
       </c>
       <c r="F7">
-        <v>0.48</v>
+        <v>68.56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -738,7 +756,7 @@
         <v>0.18</v>
       </c>
       <c r="F8">
-        <v>1.08</v>
+        <v>154.26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -758,7 +776,7 @@
         <v>0.13</v>
       </c>
       <c r="F9">
-        <v>0.78</v>
+        <v>111.41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -778,7 +796,7 @@
         <v>0.128</v>
       </c>
       <c r="F10">
-        <v>0.77</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -798,7 +816,7 @@
         <v>0.035</v>
       </c>
       <c r="F11">
-        <v>0.21</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -818,7 +836,7 @@
         <v>0.035</v>
       </c>
       <c r="F12">
-        <v>0.21</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -838,7 +856,7 @@
         <v>0.016</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>13.71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -858,7 +876,7 @@
         <v>0.04</v>
       </c>
       <c r="F14">
-        <v>0.24</v>
+        <v>34.28</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -878,7 +896,7 @@
         <v>0.02</v>
       </c>
       <c r="F15">
-        <v>0.12</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -898,7 +916,7 @@
         <v>0.115</v>
       </c>
       <c r="F16">
-        <v>0.69</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +936,7 @@
         <v>0.025</v>
       </c>
       <c r="F17">
-        <v>0.15</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +956,7 @@
         <v>0.016</v>
       </c>
       <c r="F18">
-        <v>0.1</v>
+        <v>13.71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +976,7 @@
         <v>0.017</v>
       </c>
       <c r="F19">
-        <v>0.1</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +996,7 @@
         <v>0.023</v>
       </c>
       <c r="F20">
-        <v>0.14</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1008,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="F22">
-        <v>84.0</v>
+        <v>11998.0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1028,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>42.0</v>
+        <v>5999.0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1048,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>18.0</v>
+        <v>2571.0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1068,7 +1086,7 @@
         <v>1.5</v>
       </c>
       <c r="F25">
-        <v>9.0</v>
+        <v>1285.5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1088,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>48.0</v>
+        <v>6856.0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1108,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <v>24.0</v>
+        <v>3428.0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1128,7 +1146,7 @@
         <v>0.014</v>
       </c>
       <c r="F28">
-        <v>0.08</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1148,7 +1166,7 @@
         <v>0.001</v>
       </c>
       <c r="F29">
-        <v>0.01</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1162,78 +1180,78 @@
         <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E30">
-        <v>0.3</v>
+        <v>0.001</v>
       </c>
       <c r="F30">
-        <v>1.8</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
       </c>
       <c r="E31">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="F31">
-        <v>9.0</v>
+        <v>257.1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
       <c r="E32">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="F32">
-        <v>4.2</v>
+        <v>1285.5</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
       <c r="E33">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F33">
-        <v>1.2</v>
+        <v>599.9</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -1242,33 +1260,33 @@
         <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F34">
-        <v>6.0</v>
+        <v>171.4</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
         <v>80</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>81</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>6.0</v>
+        <v>857.0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1282,13 +1300,53 @@
         <v>85</v>
       </c>
       <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>857.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
-      <c r="E36">
-        <v>24</v>
-      </c>
-      <c r="F36">
-        <v>144.0</v>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37">
+        <v>24</v>
+      </c>
+      <c r="F37">
+        <v>20568.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38">
+        <v>0.01</v>
+      </c>
+      <c r="F38">
+        <v>8.57</v>
       </c>
     </row>
   </sheetData>

--- a/functions/export/src/1/F023588-M074Q115.xlsx
+++ b/functions/export/src/1/F023588-M074Q115.xlsx
@@ -673,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1236</v>
+        <v>6664</v>
       </c>
       <c r="F2"/>
     </row>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>857</v>
+        <v>125</v>
       </c>
       <c r="F3"/>
     </row>
@@ -736,7 +736,7 @@
         <v>0.08</v>
       </c>
       <c r="F7">
-        <v>68.56</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -756,7 +756,7 @@
         <v>0.18</v>
       </c>
       <c r="F8">
-        <v>154.26</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -776,7 +776,7 @@
         <v>0.13</v>
       </c>
       <c r="F9">
-        <v>111.41</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -796,7 +796,7 @@
         <v>0.128</v>
       </c>
       <c r="F10">
-        <v>109.7</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -816,7 +816,7 @@
         <v>0.035</v>
       </c>
       <c r="F11">
-        <v>30.0</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -836,7 +836,7 @@
         <v>0.035</v>
       </c>
       <c r="F12">
-        <v>30.0</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -856,7 +856,7 @@
         <v>0.016</v>
       </c>
       <c r="F13">
-        <v>13.71</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -876,7 +876,7 @@
         <v>0.04</v>
       </c>
       <c r="F14">
-        <v>34.28</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -896,7 +896,7 @@
         <v>0.02</v>
       </c>
       <c r="F15">
-        <v>17.14</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -916,7 +916,7 @@
         <v>0.115</v>
       </c>
       <c r="F16">
-        <v>98.56</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -936,7 +936,7 @@
         <v>0.025</v>
       </c>
       <c r="F17">
-        <v>21.43</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -956,7 +956,7 @@
         <v>0.016</v>
       </c>
       <c r="F18">
-        <v>13.71</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -976,7 +976,7 @@
         <v>0.017</v>
       </c>
       <c r="F19">
-        <v>14.57</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -996,7 +996,7 @@
         <v>0.023</v>
       </c>
       <c r="F20">
-        <v>19.71</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1026,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="F22">
-        <v>11998.0</v>
+        <v>1750.0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>5999.0</v>
+        <v>875.0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>2571.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1086,7 +1086,7 @@
         <v>1.5</v>
       </c>
       <c r="F25">
-        <v>1285.5</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1106,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>6856.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1126,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <v>3428.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1146,7 +1146,7 @@
         <v>0.014</v>
       </c>
       <c r="F28">
-        <v>12.0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1166,7 +1166,7 @@
         <v>0.001</v>
       </c>
       <c r="F29">
-        <v>0.86</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1186,7 +1186,7 @@
         <v>0.001</v>
       </c>
       <c r="F30">
-        <v>0.86</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1206,7 +1206,7 @@
         <v>0.3</v>
       </c>
       <c r="F31">
-        <v>257.1</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>1.5</v>
       </c>
       <c r="F32">
-        <v>1285.5</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0.7</v>
       </c>
       <c r="F33">
-        <v>599.9</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0.2</v>
       </c>
       <c r="F34">
-        <v>171.4</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>857.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>857.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>24</v>
       </c>
       <c r="F37">
-        <v>20568.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0.01</v>
       </c>
       <c r="F38">
-        <v>8.57</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
